--- a/backend/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>820c2b29-fd70-4aab-9841-8bfffe09e03e</t>
+    <t>f5046715-c6bd-4cc3-83e9-7a4d79233d12</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>f5046715-c6bd-4cc3-83e9-7a4d79233d12</t>
+    <t>55191cd5-81b1-47e7-baef-22eb68750fff</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>55191cd5-81b1-47e7-baef-22eb68750fff</t>
+    <t>95df1d78-90c7-4986-8cc0-89a304c15a55</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>95df1d78-90c7-4986-8cc0-89a304c15a55</t>
+    <t>f85dd1a8-89da-4b62-995c-bb042f3ba799</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>f85dd1a8-89da-4b62-995c-bb042f3ba799</t>
+    <t>6235d4eb-ec87-4596-9afd-df133463a66d</t>
   </si>
   <si>
     <t>ANADIA</t>

--- a/backend/storage/app/xlsx/seed_cidades_al.xlsx
+++ b/backend/storage/app/xlsx/seed_cidades_al.xlsx
@@ -23,7 +23,7 @@
     <t>ÁGUA-BRANQUENSE</t>
   </si>
   <si>
-    <t>6235d4eb-ec87-4596-9afd-df133463a66d</t>
+    <t>a94dc980-c1bb-4ef6-adfa-03b2e7f5c683</t>
   </si>
   <si>
     <t>ANADIA</t>
